--- a/PytestAutoTestFrameWork/data/tcData.xlsx
+++ b/PytestAutoTestFrameWork/data/tcData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20400" windowHeight="7935" activeTab="2"/>
+    <workbookView windowWidth="19200" windowHeight="7140"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="31">
   <si>
     <t>username</t>
   </si>
@@ -28,10 +28,7 @@
     <t>expected</t>
   </si>
   <si>
-    <t>linuxxiaochao</t>
-  </si>
-  <si>
-    <t>xiaochao11520</t>
+    <t>Hxl_19921106</t>
   </si>
   <si>
     <t>写 信</t>
@@ -43,10 +40,7 @@
     <t>请输入帐号</t>
   </si>
   <si>
-    <t>linux</t>
-  </si>
-  <si>
-    <t>xiaochao</t>
+    <t>hhh</t>
   </si>
   <si>
     <t>帐号或密码错误</t>
@@ -100,7 +94,7 @@
     <t>pfa</t>
   </si>
   <si>
-    <t>281754043@qq.com</t>
+    <t>1057254328@qq.com</t>
   </si>
   <si>
     <t>test发送邮件1</t>
@@ -115,7 +109,7 @@
     <t>发送带附件的邮件</t>
   </si>
   <si>
-    <t>D:\\KeyWordDriverTestFrameWork\\geckodriver.log</t>
+    <t>C:\Users\LUMI\Documents\测试相关\LogExport.txt</t>
   </si>
 </sst>
 </file>
@@ -128,7 +122,7 @@
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -162,73 +156,59 @@
     <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="等线 Light"/>
       <charset val="0"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -242,21 +222,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -273,6 +238,49 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
@@ -280,8 +288,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -295,17 +304,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -320,187 +321,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -544,15 +545,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -564,6 +556,24 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -594,9 +604,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -615,17 +627,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -634,10 +635,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -646,133 +647,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -795,13 +796,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="10" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="10" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="10" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1154,18 +1155,18 @@
   <sheetPr/>
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="4" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
-    <col min="2" max="2" width="19.625" customWidth="1"/>
-    <col min="3" max="3" width="16.25" customWidth="1"/>
+    <col min="2" max="2" width="19.6272727272727" customWidth="1"/>
+    <col min="3" max="3" width="16.2545454545455" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" spans="1:3">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1176,44 +1177,44 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" ht="14.25" spans="1:3">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:3">
+      <c r="A2" s="1">
+        <v>15319781701</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" ht="14.25" spans="1:3">
-      <c r="A3" s="1" t="s">
-        <v>3</v>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1">
+        <v>15319781701</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" ht="14.25" spans="1:3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4" s="1"/>
       <c r="B4" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1">
+        <v>15319781701</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" ht="14.25" spans="1:3">
-      <c r="A5" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1229,43 +1230,43 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="2" outlineLevelCol="5"/>
   <cols>
-    <col min="2" max="2" width="21.125" customWidth="1"/>
+    <col min="2" max="2" width="21.1272727272727" customWidth="1"/>
     <col min="4" max="4" width="14" customWidth="1"/>
-    <col min="5" max="5" width="17.125" customWidth="1"/>
-    <col min="6" max="6" width="21.375" customWidth="1"/>
+    <col min="5" max="5" width="17.1272727272727" customWidth="1"/>
+    <col min="6" max="6" width="21.3727272727273" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" spans="1:6">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>15</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" ht="14.25" spans="1:6">
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C2" s="1">
         <v>1</v>
@@ -1274,18 +1275,18 @@
         <v>13691579841</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" ht="14.5" spans="1:6">
+      <c r="A3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" ht="14.25" spans="1:6">
-      <c r="A3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>20</v>
       </c>
       <c r="C3" s="1">
         <v>0</v>
@@ -1294,10 +1295,10 @@
         <v>13691579842</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -1316,62 +1317,62 @@
   <sheetPr/>
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="2" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="18.25" customWidth="1"/>
-    <col min="2" max="2" width="21.25" customWidth="1"/>
-    <col min="3" max="3" width="20.75" customWidth="1"/>
-    <col min="4" max="4" width="41.125" customWidth="1"/>
+    <col min="1" max="1" width="22.0909090909091" customWidth="1"/>
+    <col min="2" max="2" width="21.2545454545455" customWidth="1"/>
+    <col min="3" max="3" width="20.7545454545455" customWidth="1"/>
+    <col min="4" max="4" width="41.1272727272727" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" spans="1:4">
+    <row r="1" spans="1:4">
       <c r="A1" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="D1" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="5" t="s">
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="B2" s="5" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="2" ht="14.25" spans="1:4">
-      <c r="A2" s="6" t="s">
+      <c r="C2" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="D2" s="5"/>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C3" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="D2" s="5"/>
-    </row>
-    <row r="3" ht="14.25" spans="1:4">
-      <c r="A3" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="B3" s="5" t="s">
+      <c r="D3" s="7" t="s">
         <v>30</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>32</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="281754043@qq.com"/>
-    <hyperlink ref="A3" r:id="rId1" display="281754043@qq.com" tooltip="mailto:281754043@qq.com"/>
+    <hyperlink ref="A2" r:id="rId1" display="1057254328@qq.com"/>
+    <hyperlink ref="A3" r:id="rId1" display="1057254328@qq.com"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -1387,9 +1388,9 @@
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="5"/>
   <sheetData>
-    <row r="1" ht="14.25" spans="1:6">
+    <row r="1" spans="1:6">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="1"/>
@@ -1397,7 +1398,7 @@
       <c r="E1" s="1"/>
       <c r="F1" s="2"/>
     </row>
-    <row r="2" ht="14.25" spans="1:6">
+    <row r="2" ht="14.5" spans="1:6">
       <c r="A2" s="1"/>
       <c r="B2" s="2"/>
       <c r="C2" s="1"/>
@@ -1405,7 +1406,7 @@
       <c r="E2" s="1"/>
       <c r="F2" s="3"/>
     </row>
-    <row r="3" ht="14.25" spans="1:6">
+    <row r="3" spans="1:6">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -1413,7 +1414,7 @@
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" ht="14.25" spans="1:6">
+    <row r="4" spans="1:6">
       <c r="A4" s="1"/>
       <c r="B4" s="2"/>
       <c r="C4" s="1"/>
@@ -1421,7 +1422,7 @@
       <c r="E4" s="1"/>
       <c r="F4" s="2"/>
     </row>
-    <row r="5" ht="14.25" spans="1:6">
+    <row r="5" ht="14.5" spans="1:6">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -1429,7 +1430,7 @@
       <c r="E5" s="1"/>
       <c r="F5" s="3"/>
     </row>
-    <row r="6" ht="14.25" spans="1:6">
+    <row r="6" spans="1:6">
       <c r="A6" s="1"/>
       <c r="B6" s="2"/>
       <c r="C6" s="1"/>
@@ -1437,7 +1438,7 @@
       <c r="E6" s="1"/>
       <c r="F6" s="2"/>
     </row>
-    <row r="7" ht="14.25" spans="1:6">
+    <row r="7" spans="1:6">
       <c r="A7" s="1"/>
       <c r="B7" s="2"/>
       <c r="C7" s="1"/>
@@ -1445,7 +1446,7 @@
       <c r="E7" s="1"/>
       <c r="F7" s="2"/>
     </row>
-    <row r="8" ht="14.25" spans="1:6">
+    <row r="8" spans="1:6">
       <c r="A8" s="1"/>
       <c r="B8" s="2"/>
       <c r="C8" s="1"/>
@@ -1453,19 +1454,19 @@
       <c r="E8" s="1"/>
       <c r="F8" s="2"/>
     </row>
-    <row r="9" ht="14.25" spans="1:4">
+    <row r="9" ht="14.5" spans="1:4">
       <c r="A9" s="2"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="4"/>
     </row>
-    <row r="10" ht="14.25" spans="1:4">
+    <row r="10" spans="1:4">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
     </row>
-    <row r="11" ht="14.25" spans="1:4">
+    <row r="11" spans="1:4">
       <c r="A11" s="2"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
